--- a/risk.xlsx
+++ b/risk.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artur Fonseca\Documents\GitHub\GPI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -800,56 +795,56 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Cor2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Cor3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Cor4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Cor5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Cor6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Cor1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Cor2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Cor3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Cor4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Cor5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Cor6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Cor1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Cor2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Cor3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Cor4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Cor5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Cor6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula Ligada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cor1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Cor2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Cor3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Cor4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Cor5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Cor6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Correto" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Verificar Célula" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -907,7 +902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -942,7 +937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,7 +1114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1149,14 +1144,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1187,7 +1182,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
@@ -1216,7 +1211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -1245,7 +1240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -1274,7 +1269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>67</v>
       </c>
@@ -1303,7 +1298,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>68</v>
       </c>
@@ -1332,7 +1327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -1361,7 +1356,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
@@ -1390,7 +1385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -1419,7 +1414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -1448,7 +1443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -1477,7 +1472,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>74</v>
       </c>
@@ -1506,7 +1501,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -1535,7 +1530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>76</v>
       </c>

--- a/risk.xlsx
+++ b/risk.xlsx
@@ -1114,7 +1114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1127,7 +1127,7 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
